--- a/Initial Schemas.xlsx
+++ b/Initial Schemas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CSC301\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A0ECD82-F36D-41DB-8939-055938F29CB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B54066A-7B7A-453A-A55D-02D12288FDF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{502BF479-7AC0-4A02-96A2-BC80137B7B7F}"/>
+    <workbookView xWindow="-27240" yWindow="-3120" windowWidth="21600" windowHeight="11505" xr2:uid="{502BF479-7AC0-4A02-96A2-BC80137B7B7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
   <si>
     <t>UserID</t>
   </si>
@@ -84,12 +84,6 @@
     <t>NOTE: Multiple values per UserID if one person has more than one type of cancer &amp; has multiple medications</t>
   </si>
   <si>
-    <t>Cancer Type and its medications (Primary Key: CancerType &amp; Medication)</t>
-  </si>
-  <si>
-    <t>treatments</t>
-  </si>
-  <si>
     <t>Cancer Type (Primary Key: CancerType)</t>
   </si>
   <si>
@@ -111,43 +105,47 @@
     <t>Varchar?</t>
   </si>
   <si>
-    <t>Mentors (Primary Key: UserID)</t>
-  </si>
-  <si>
     <t>User Information Table (Primary Key: UserID) Includes all users, mentors mentees &amp; dating</t>
   </si>
   <si>
     <t>Last saved type of interest(dating/mentorship)</t>
   </si>
   <si>
-    <t>Site preferences …</t>
-  </si>
-  <si>
-    <t>Cancer Type and its treatments (Primary Key: CancerType &amp; Treatments)</t>
-  </si>
-  <si>
-    <t>If we can get relationship between cancertype and medication from Darryl</t>
-  </si>
-  <si>
-    <t>If we can get relationship between cancertype and treatments from Darryl</t>
+    <t>Users I want to match with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users I've Matched with </t>
+  </si>
+  <si>
+    <t>Users that want to match with me</t>
+  </si>
+  <si>
+    <t>Matching Table</t>
+  </si>
+  <si>
+    <t>Sports</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… </t>
+  </si>
+  <si>
+    <t>Users interested in dating and their preferences</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -161,7 +159,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,12 +178,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -199,12 +191,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,27 +510,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5842A14C-3104-4A7B-BC19-1A84714685AB}">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="100.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -562,13 +555,10 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
         <v>10</v>
@@ -594,10 +584,7 @@
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
         <v>4</v>
@@ -644,14 +631,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>30</v>
+      <c r="A12" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -659,10 +641,16 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -670,61 +658,53 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
       </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
@@ -732,23 +712,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
@@ -756,49 +736,43 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" t="s">
         <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1037,16 +1011,16 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC997715-1713-4CBA-8EEE-1C74532DFFF8}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="65836d8f-8f4b-45e4-91cd-40c446f02323"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="ad0b8bd6-5fe7-4457-801f-48108ed0e50b"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>